--- a/progress/8_28_13/KR_9_subjects.xlsx
+++ b/progress/8_28_13/KR_9_subjects.xlsx
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="29">
-  <si>
-    <t>With Whitening</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="48">
   <si>
     <t>R = 60</t>
   </si>
@@ -51,41 +48,37 @@
   </si>
   <si>
     <t>K = 50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>K = 60</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>K = 70</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>K = 80</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>R = 60</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>With Whitening</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1 v 2</t>
   </si>
   <si>
     <t>1 v 2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2 v 2</t>
   </si>
   <si>
     <t>2 v 2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>R = 80</t>
@@ -107,31 +100,112 @@
   </si>
   <si>
     <t>R = 60</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>R = 80</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>R = 100</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>R = 120</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>R = 140</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>R = 160</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>R = 180</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raw</t>
+  </si>
+  <si>
+    <t>Raw</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 vs 2</t>
+  </si>
+  <si>
+    <t>1 vs 2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 vs 2</t>
+  </si>
+  <si>
+    <t>2 vs 2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>K = 90</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>K = 90</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>K = 90</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>K = 90</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>K = 90</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whiten</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Whiten</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 v 2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 v 2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whiten</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Whiten</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 v 2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 v 2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whiten</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 v 2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -144,7 +218,16 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -174,12 +257,30 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -194,19 +295,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -215,11 +316,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -551,16 +682,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
     <col min="5" max="6" width="8.140625" customWidth="1"/>
@@ -568,139 +698,158 @@
     <col min="8" max="8" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="E1" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="13">
+        <v>76.334000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18">
+        <v>71.533000000000001</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="13">
+        <v>90.665999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="18">
+        <v>75.533000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="18">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="18">
+        <v>75.266999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
+      <c r="B8" s="19"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="B9" s="19"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="B10" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="18">
+        <v>79.066999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>71.533000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="B12" s="18">
+        <v>84.667000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>75.533000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="B13" s="18">
+        <v>81.733000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>73.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>75.266999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>79.066999999999993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>84.667000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>81.733000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
+      <c r="B14" s="18">
         <v>83.733000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:6">
+      <c r="A16" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:8" s="9" customFormat="1">
-      <c r="A17" s="8"/>
+      <c r="A17" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="B17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="7">
         <v>66.733000000000004</v>
@@ -726,7 +875,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="7">
         <v>67.466999999999999</v>
@@ -737,7 +886,7 @@
       <c r="D19" s="7">
         <v>68</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="11">
         <v>68.599999999999994</v>
       </c>
       <c r="F19" s="7">
@@ -752,115 +901,231 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="B20" s="7">
+        <v>68.2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="D20" s="7">
+        <v>67</v>
+      </c>
+      <c r="E20" s="7">
+        <v>68</v>
+      </c>
+      <c r="F20" s="7">
+        <v>66.667000000000002</v>
+      </c>
+      <c r="G20" s="7">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="H20" s="7">
+        <v>65.933000000000007</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="B21" s="7">
+        <v>66.466999999999999</v>
+      </c>
+      <c r="C21" s="7">
+        <v>67.8</v>
+      </c>
+      <c r="D21" s="7">
+        <v>68</v>
+      </c>
+      <c r="E21" s="7">
+        <v>68.332999999999998</v>
+      </c>
+      <c r="F21" s="7">
+        <v>68.066999999999993</v>
+      </c>
+      <c r="G21" s="11">
+        <v>69.266999999999996</v>
+      </c>
+      <c r="H21" s="7">
+        <v>68.533000000000001</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="7">
+        <v>68</v>
+      </c>
+      <c r="C22" s="7">
+        <v>66.266999999999996</v>
+      </c>
+      <c r="D22" s="11">
+        <v>68.667000000000002</v>
+      </c>
+      <c r="E22" s="7">
+        <v>67.533000000000001</v>
+      </c>
+      <c r="F22" s="7">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="G22" s="7">
+        <v>68.066999999999993</v>
+      </c>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="7">
-        <v>76.8</v>
-      </c>
-      <c r="C23" s="7">
-        <v>78</v>
-      </c>
-      <c r="D23" s="7">
-        <v>78</v>
-      </c>
-      <c r="E23" s="7">
-        <v>78.533000000000001</v>
-      </c>
-      <c r="F23" s="7">
-        <v>77.599999999999994</v>
-      </c>
-      <c r="G23" s="7">
-        <v>78.933000000000007</v>
-      </c>
-      <c r="H23" s="7">
-        <v>78.667000000000002</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="7">
-        <v>79.466999999999999</v>
-      </c>
-      <c r="C24" s="7">
-        <v>78.933000000000007</v>
-      </c>
-      <c r="D24" s="7">
-        <v>81.599999999999994</v>
-      </c>
-      <c r="E24" s="7">
-        <v>79.867000000000004</v>
-      </c>
-      <c r="F24" s="7">
-        <v>78.667000000000002</v>
-      </c>
-      <c r="G24" s="7">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="H24" s="7">
-        <v>81.332999999999998</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="B25" s="7">
+        <v>76.8</v>
+      </c>
+      <c r="C25" s="7">
+        <v>78</v>
+      </c>
+      <c r="D25" s="7">
+        <v>78</v>
+      </c>
+      <c r="E25" s="7">
+        <v>78.533000000000001</v>
+      </c>
+      <c r="F25" s="7">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="G25" s="7">
+        <v>78.933000000000007</v>
+      </c>
+      <c r="H25" s="7">
+        <v>78.667000000000002</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="B26" s="7">
+        <v>79.466999999999999</v>
+      </c>
+      <c r="C26" s="7">
+        <v>78.933000000000007</v>
+      </c>
+      <c r="D26" s="11">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="E26" s="7">
+        <v>79.867000000000004</v>
+      </c>
+      <c r="F26" s="7">
+        <v>78.667000000000002</v>
+      </c>
+      <c r="G26" s="7">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="H26" s="11">
+        <v>81.332999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="7">
+        <v>78.667000000000002</v>
+      </c>
+      <c r="C27" s="7">
+        <v>80.667000000000002</v>
+      </c>
+      <c r="D27" s="7">
+        <v>78</v>
+      </c>
+      <c r="E27" s="7">
+        <v>79.867000000000004</v>
+      </c>
+      <c r="F27" s="7">
+        <v>77.2</v>
+      </c>
+      <c r="G27" s="7">
+        <v>77.2</v>
+      </c>
+      <c r="H27" s="7">
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="7">
+        <v>78.132999999999996</v>
+      </c>
+      <c r="C28" s="7">
+        <v>77.466999999999999</v>
+      </c>
+      <c r="D28" s="7">
+        <v>80</v>
+      </c>
+      <c r="E28" s="7">
+        <v>80</v>
+      </c>
+      <c r="F28" s="7">
+        <v>79.867000000000004</v>
+      </c>
+      <c r="G28" s="7">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="H28" s="7">
+        <v>78.533000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="7">
+        <v>78.266999999999996</v>
+      </c>
+      <c r="C29" s="7">
+        <v>78.533000000000001</v>
+      </c>
+      <c r="D29" s="7">
+        <v>78.667000000000002</v>
+      </c>
+      <c r="E29" s="11">
+        <v>81.733000000000004</v>
+      </c>
+      <c r="F29" s="7">
+        <v>80.132999999999996</v>
+      </c>
+      <c r="G29" s="7">
+        <v>79.2</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -873,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView view="pageLayout" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -889,143 +1154,162 @@
     <col min="7" max="8" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="E1" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="C3" s="7"/>
+      <c r="E3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20">
+        <v>77.733000000000004</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="E4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="13">
+        <v>92.665999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20">
+        <v>78</v>
+      </c>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="20">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="20">
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
+      <c r="B8" s="19"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="B9" s="19"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="B10" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="B11" s="20">
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
-        <v>77.733000000000004</v>
-      </c>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="B12" s="20">
+        <v>88.667000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
-        <v>78</v>
-      </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="B13" s="20">
+        <v>87.733000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7">
-        <v>77.599999999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="7">
-        <v>87.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="7">
-        <v>88.667000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="7">
-        <v>87.733000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="7">
+      <c r="B14" s="20">
         <v>85.867000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:6">
+      <c r="A16" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="8"/>
+      <c r="A17" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="B17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="7">
         <v>73.066999999999993</v>
@@ -1051,7 +1335,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="7">
         <v>74.933000000000007</v>
@@ -1059,7 +1343,7 @@
       <c r="C19" s="7">
         <v>74.867000000000004</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="14">
         <v>75.332999999999998</v>
       </c>
       <c r="E19" s="7">
@@ -1077,119 +1361,231 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="B20" s="7">
+        <v>74.933000000000007</v>
+      </c>
+      <c r="C20" s="7">
+        <v>75.533000000000001</v>
+      </c>
+      <c r="D20" s="7">
+        <v>75.466999999999999</v>
+      </c>
+      <c r="E20" s="7">
+        <v>73.867000000000004</v>
+      </c>
+      <c r="F20" s="7">
+        <v>75</v>
+      </c>
+      <c r="G20" s="7">
+        <v>73.867000000000004</v>
+      </c>
+      <c r="H20" s="7">
+        <v>74.667000000000002</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="B21" s="7">
+        <v>74.533000000000001</v>
+      </c>
+      <c r="C21" s="11">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="D21" s="7">
+        <v>74.733000000000004</v>
+      </c>
+      <c r="E21" s="7">
+        <v>74.2</v>
+      </c>
+      <c r="F21" s="7">
+        <v>74.332999999999998</v>
+      </c>
+      <c r="G21" s="7">
+        <v>74</v>
+      </c>
+      <c r="H21" s="7">
+        <v>74</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="7">
+        <v>74.667000000000002</v>
+      </c>
+      <c r="C22" s="11">
+        <v>75.867000000000004</v>
+      </c>
+      <c r="D22" s="7">
+        <v>74</v>
+      </c>
+      <c r="E22" s="7">
+        <v>75.466999999999999</v>
+      </c>
+      <c r="F22" s="11">
+        <v>76.533000000000001</v>
+      </c>
+      <c r="G22" s="7">
+        <v>74</v>
+      </c>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="7">
-        <v>82.4</v>
-      </c>
-      <c r="C23" s="7">
-        <v>81.599999999999994</v>
-      </c>
-      <c r="D23" s="7">
-        <v>82.667000000000002</v>
-      </c>
-      <c r="E23" s="7">
-        <v>83.466999999999999</v>
-      </c>
-      <c r="F23" s="7">
-        <v>82.4</v>
-      </c>
-      <c r="G23" s="7">
-        <v>82.8</v>
-      </c>
-      <c r="H23" s="7">
-        <v>81.733000000000004</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="7">
-        <v>83.066999999999993</v>
-      </c>
-      <c r="C24" s="7">
-        <v>82.667000000000002</v>
-      </c>
-      <c r="D24" s="7">
-        <v>84.266999999999996</v>
-      </c>
-      <c r="E24" s="7">
-        <v>83.332999999999998</v>
-      </c>
-      <c r="F24" s="7">
-        <v>84</v>
-      </c>
-      <c r="G24" s="7">
-        <v>82.8</v>
-      </c>
-      <c r="H24" s="7">
-        <v>84.266999999999996</v>
-      </c>
+      <c r="A24" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="B25" s="7">
+        <v>82.4</v>
+      </c>
+      <c r="C25" s="7">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="D25" s="7">
+        <v>82.667000000000002</v>
+      </c>
+      <c r="E25" s="7">
+        <v>83.466999999999999</v>
+      </c>
+      <c r="F25" s="7">
+        <v>82.4</v>
+      </c>
+      <c r="G25" s="7">
+        <v>82.8</v>
+      </c>
+      <c r="H25" s="7">
+        <v>81.733000000000004</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="B26" s="7">
+        <v>83.066999999999993</v>
+      </c>
+      <c r="C26" s="7">
+        <v>82.667000000000002</v>
+      </c>
+      <c r="D26" s="11">
+        <v>84.266999999999996</v>
+      </c>
+      <c r="E26" s="7">
+        <v>83.332999999999998</v>
+      </c>
+      <c r="F26" s="7">
+        <v>84</v>
+      </c>
+      <c r="G26" s="7">
+        <v>82.8</v>
+      </c>
+      <c r="H26" s="11">
+        <v>84.266999999999996</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="B27" s="3"/>
+      <c r="A27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="7">
+        <v>84</v>
+      </c>
+      <c r="C27" s="7">
+        <v>82.933000000000007</v>
+      </c>
+      <c r="D27" s="7">
+        <v>82.933000000000007</v>
+      </c>
+      <c r="E27" s="7">
+        <v>82.4</v>
+      </c>
+      <c r="F27" s="7">
+        <v>82.8</v>
+      </c>
+      <c r="G27" s="7">
+        <v>81.733000000000004</v>
+      </c>
+      <c r="H27" s="7">
+        <v>82.667000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="7">
+        <v>81.733000000000004</v>
+      </c>
+      <c r="C28" s="7">
+        <v>82.8</v>
+      </c>
+      <c r="D28" s="11">
+        <v>85.2</v>
+      </c>
+      <c r="E28" s="7">
+        <v>83.6</v>
+      </c>
+      <c r="F28" s="7">
+        <v>83.733000000000004</v>
+      </c>
+      <c r="G28" s="7">
+        <v>83.2</v>
+      </c>
+      <c r="H28" s="7">
+        <v>82.266999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="7">
+        <v>84.132999999999996</v>
+      </c>
+      <c r="C29" s="7">
+        <v>83.466999999999999</v>
+      </c>
+      <c r="D29" s="7">
+        <v>81.466999999999999</v>
+      </c>
+      <c r="E29" s="7">
+        <v>83.332999999999998</v>
+      </c>
+      <c r="F29" s="7">
+        <v>83.6</v>
+      </c>
+      <c r="G29" s="7">
+        <v>82.533000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1202,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1220,145 +1616,164 @@
     <col min="8" max="8" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="E1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13">
+        <v>79.668000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="B4" s="7">
         <v>65.733000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="E4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="13">
+        <v>89.331999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="7">
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="7">
         <v>63.533000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="7">
         <v>66.667000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="B11" s="7">
         <v>72.132999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="7">
         <v>72.132999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="7">
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="7">
         <v>73.733000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="4"/>
+      <c r="A17" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="7">
+        <v>5</v>
+      </c>
+      <c r="B19" s="20">
         <v>67.400000000000006</v>
       </c>
       <c r="C19" s="7">
@@ -1376,15 +1791,15 @@
       <c r="G19" s="7">
         <v>68.066999999999993</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="11">
         <v>68.733000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="7">
+        <v>6</v>
+      </c>
+      <c r="B20" s="20">
         <v>67.933000000000007</v>
       </c>
       <c r="C20" s="7">
@@ -1408,116 +1823,231 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="B21" s="20">
+        <v>68.667000000000002</v>
+      </c>
+      <c r="C21" s="7">
+        <v>68</v>
+      </c>
+      <c r="D21" s="7">
+        <v>67.8</v>
+      </c>
+      <c r="E21" s="7">
+        <v>68.332999999999998</v>
+      </c>
+      <c r="F21" s="7">
+        <v>67.933000000000007</v>
+      </c>
+      <c r="G21" s="7">
+        <v>67.733000000000004</v>
+      </c>
+      <c r="H21" s="7">
+        <v>68.132999999999996</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="B22" s="11">
+        <v>68.933000000000007</v>
+      </c>
+      <c r="C22" s="7">
+        <v>68.667000000000002</v>
+      </c>
+      <c r="D22" s="7">
+        <v>68.667000000000002</v>
+      </c>
+      <c r="E22" s="7">
+        <v>68.466999999999999</v>
+      </c>
+      <c r="F22" s="7">
+        <v>68</v>
+      </c>
+      <c r="G22" s="7">
+        <v>67.466999999999999</v>
+      </c>
+      <c r="H22" s="7">
+        <v>68.667000000000002</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="20">
+        <v>67.466999999999999</v>
+      </c>
+      <c r="C23" s="7">
+        <v>66.933000000000007</v>
+      </c>
+      <c r="D23" s="7">
+        <v>68.667000000000002</v>
+      </c>
+      <c r="E23" s="7">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="F23" s="11">
+        <v>68.733000000000004</v>
+      </c>
+      <c r="G23" s="7">
+        <v>67.599999999999994</v>
+      </c>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="7">
-        <v>78.933000000000007</v>
-      </c>
-      <c r="C24" s="7">
-        <v>79.066999999999993</v>
-      </c>
-      <c r="D24" s="7">
-        <v>79.2</v>
-      </c>
-      <c r="E24" s="7">
-        <v>79.867000000000004</v>
-      </c>
-      <c r="F24" s="7">
-        <v>81.466999999999999</v>
-      </c>
-      <c r="G24" s="7">
-        <v>79.2</v>
-      </c>
-      <c r="H24" s="7">
-        <v>79.867000000000004</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="7">
-        <v>79.867000000000004</v>
-      </c>
-      <c r="C25" s="7">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="D25" s="7">
-        <v>79.466999999999999</v>
-      </c>
-      <c r="E25" s="7">
-        <v>80.132999999999996</v>
-      </c>
-      <c r="F25" s="7">
-        <v>78.667000000000002</v>
-      </c>
-      <c r="G25" s="7">
-        <v>77.066999999999993</v>
-      </c>
-      <c r="H25" s="7">
-        <v>80.266999999999996</v>
-      </c>
+      <c r="A25" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="B26" s="20">
+        <v>78.933000000000007</v>
+      </c>
+      <c r="C26" s="7">
+        <v>79.066999999999993</v>
+      </c>
+      <c r="D26" s="7">
+        <v>79.2</v>
+      </c>
+      <c r="E26" s="7">
+        <v>79.867000000000004</v>
+      </c>
+      <c r="F26" s="11">
+        <v>81.466999999999999</v>
+      </c>
+      <c r="G26" s="7">
+        <v>79.2</v>
+      </c>
+      <c r="H26" s="7">
+        <v>79.867000000000004</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="B27" s="20">
+        <v>79.867000000000004</v>
+      </c>
+      <c r="C27" s="7">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="D27" s="7">
+        <v>79.466999999999999</v>
+      </c>
+      <c r="E27" s="7">
+        <v>80.132999999999996</v>
+      </c>
+      <c r="F27" s="7">
+        <v>78.667000000000002</v>
+      </c>
+      <c r="G27" s="7">
+        <v>77.066999999999993</v>
+      </c>
+      <c r="H27" s="7">
+        <v>80.266999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="20">
+        <v>81.2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>80.132999999999996</v>
+      </c>
+      <c r="D28" s="7">
+        <v>80.266999999999996</v>
+      </c>
+      <c r="E28" s="7">
+        <v>79.466999999999999</v>
+      </c>
+      <c r="F28" s="7">
+        <v>79.867000000000004</v>
+      </c>
+      <c r="G28" s="7">
+        <v>79.332999999999998</v>
+      </c>
+      <c r="H28" s="7">
+        <v>80.132999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="20">
+        <v>79.466999999999999</v>
+      </c>
+      <c r="C29" s="11">
+        <v>82.266999999999996</v>
+      </c>
+      <c r="D29" s="7">
+        <v>80</v>
+      </c>
+      <c r="E29" s="7">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="F29" s="7">
+        <v>80</v>
+      </c>
+      <c r="G29" s="7">
+        <v>78.533000000000001</v>
+      </c>
+      <c r="H29" s="7">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="20">
+        <v>80</v>
+      </c>
+      <c r="C30" s="7">
+        <v>77.332999999999998</v>
+      </c>
+      <c r="D30" s="7">
+        <v>80.533000000000001</v>
+      </c>
+      <c r="E30" s="7">
+        <v>80.8</v>
+      </c>
+      <c r="F30" s="7">
+        <v>80.667000000000002</v>
+      </c>
+      <c r="G30" s="11">
+        <v>81.332999999999998</v>
+      </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1530,10 +2060,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1548,136 +2078,158 @@
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="E1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="E3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13">
+        <v>88.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20">
+        <v>82.266999999999996</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="13">
+        <v>96.665999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20">
+        <v>83.533000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="20">
+        <v>82.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="20">
+        <v>82.066999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
+      <c r="B8" s="19"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="8" t="s">
+      <c r="B9" s="19"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="B10" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
+      <c r="B11" s="20">
+        <v>91.066999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
-        <v>82.266999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
+      <c r="B12" s="20">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
-        <v>83.533000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="B13" s="20">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
-        <v>82.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7">
-        <v>82.066999999999993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="B14" s="20">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="7">
-        <v>91.066999999999993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="7">
-        <v>91.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="7">
-        <v>91.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="7">
-        <v>90.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="F18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="7">
         <v>78.400000000000006</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="11">
         <v>79.266999999999996</v>
       </c>
       <c r="D19" s="7">
@@ -1692,13 +2244,13 @@
       <c r="G19" s="7">
         <v>78.599999999999994</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="11">
         <v>79.332999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="7">
         <v>78.466999999999999</v>
@@ -1724,116 +2276,232 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="B21" s="7">
+        <v>78.266999999999996</v>
+      </c>
+      <c r="C21" s="7">
+        <v>78.933000000000007</v>
+      </c>
+      <c r="D21" s="7">
+        <v>79.2</v>
+      </c>
+      <c r="E21" s="7">
+        <v>78.466999999999999</v>
+      </c>
+      <c r="F21" s="7">
+        <v>78.867000000000004</v>
+      </c>
+      <c r="G21" s="7">
+        <v>77.332999999999998</v>
+      </c>
+      <c r="H21" s="7">
+        <v>79</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="B22" s="11">
+        <v>79.332999999999998</v>
+      </c>
+      <c r="C22" s="7">
+        <v>78.867000000000004</v>
+      </c>
+      <c r="D22" s="7">
+        <v>78.066999999999993</v>
+      </c>
+      <c r="E22" s="7">
+        <v>78.867000000000004</v>
+      </c>
+      <c r="F22" s="7">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="G22" s="7">
+        <v>79.066999999999993</v>
+      </c>
+      <c r="H22" s="7">
+        <v>78.2</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="A23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="7">
+        <v>78.933000000000007</v>
+      </c>
+      <c r="C23" s="7">
+        <v>78.933000000000007</v>
+      </c>
+      <c r="D23" s="7">
+        <v>78.066999999999993</v>
+      </c>
+      <c r="E23" s="7">
+        <v>78.867000000000004</v>
+      </c>
+      <c r="F23" s="7">
+        <v>78.8</v>
+      </c>
+      <c r="G23" s="7">
+        <v>78.533000000000001</v>
+      </c>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="7">
-        <v>85.733000000000004</v>
-      </c>
-      <c r="C24" s="7">
-        <v>87.332999999999998</v>
-      </c>
-      <c r="D24" s="7">
-        <v>85.867000000000004</v>
-      </c>
-      <c r="E24" s="7">
-        <v>85.733000000000004</v>
-      </c>
-      <c r="F24" s="7">
-        <v>86.533000000000001</v>
-      </c>
-      <c r="G24" s="7">
-        <v>87.466999999999999</v>
-      </c>
-      <c r="H24" s="7">
-        <v>86</v>
-      </c>
+      <c r="A24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="7">
-        <v>85.867000000000004</v>
-      </c>
-      <c r="C25" s="7">
-        <v>87.332999999999998</v>
-      </c>
-      <c r="D25" s="7">
-        <v>86.4</v>
-      </c>
-      <c r="E25" s="7">
-        <v>85.733000000000004</v>
-      </c>
-      <c r="F25" s="7">
-        <v>85.733000000000004</v>
-      </c>
-      <c r="G25" s="7">
-        <v>85.2</v>
-      </c>
-      <c r="H25" s="7">
-        <v>85.733000000000004</v>
-      </c>
+      <c r="A25" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="B26" s="7">
+        <v>85.733000000000004</v>
+      </c>
+      <c r="C26" s="7">
+        <v>87.332999999999998</v>
+      </c>
+      <c r="D26" s="7">
+        <v>85.867000000000004</v>
+      </c>
+      <c r="E26" s="7">
+        <v>85.733000000000004</v>
+      </c>
+      <c r="F26" s="7">
+        <v>86.533000000000001</v>
+      </c>
+      <c r="G26" s="11">
+        <v>87.466999999999999</v>
+      </c>
+      <c r="H26" s="7">
+        <v>86</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="B27" s="7">
+        <v>85.867000000000004</v>
+      </c>
+      <c r="C27" s="7">
+        <v>87.332999999999998</v>
+      </c>
+      <c r="D27" s="7">
+        <v>86.4</v>
+      </c>
+      <c r="E27" s="7">
+        <v>85.733000000000004</v>
+      </c>
+      <c r="F27" s="7">
+        <v>85.733000000000004</v>
+      </c>
+      <c r="G27" s="7">
+        <v>85.2</v>
+      </c>
+      <c r="H27" s="7">
+        <v>85.733000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="7">
+        <v>87.332999999999998</v>
+      </c>
+      <c r="C28" s="11">
+        <v>87.466999999999999</v>
+      </c>
+      <c r="D28" s="7">
+        <v>87.066999999999993</v>
+      </c>
+      <c r="E28" s="7">
+        <v>87.332999999999998</v>
+      </c>
+      <c r="F28" s="7">
+        <v>86</v>
+      </c>
+      <c r="G28" s="7">
+        <v>85.332999999999998</v>
+      </c>
+      <c r="H28" s="7">
+        <v>86.266999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="11">
+        <v>87.867000000000004</v>
+      </c>
+      <c r="C29" s="7">
+        <v>86.533000000000001</v>
+      </c>
+      <c r="D29" s="7">
+        <v>86.533000000000001</v>
+      </c>
+      <c r="E29" s="7">
+        <v>86.933000000000007</v>
+      </c>
+      <c r="F29" s="7">
+        <v>87.332999999999998</v>
+      </c>
+      <c r="G29" s="7">
+        <v>86</v>
+      </c>
+      <c r="H29" s="7">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="7">
+        <v>87.332999999999998</v>
+      </c>
+      <c r="C30" s="7">
+        <v>85.733000000000004</v>
+      </c>
+      <c r="D30" s="7">
+        <v>87.2</v>
+      </c>
+      <c r="E30" s="7">
+        <v>87.2</v>
+      </c>
+      <c r="F30" s="7">
+        <v>87.066999999999993</v>
+      </c>
+      <c r="G30" s="11">
+        <v>87.466999999999999</v>
+      </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1846,10 +2514,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1864,145 +2532,164 @@
     <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="E1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13">
+        <v>80.665999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="B4" s="7">
         <v>76.466999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="E4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="13">
+        <v>91.331999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="7">
         <v>76.667000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="7">
         <v>74.667000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="7">
         <v>78.132999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="B11" s="7">
         <v>84.132999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="7">
         <v>85.466999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="7">
         <v>83.867000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="7">
         <v>84.533000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="4"/>
+      <c r="A17" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="7">
+        <v>5</v>
+      </c>
+      <c r="B19" s="20">
         <v>78.266999999999996</v>
       </c>
       <c r="C19" s="7">
@@ -2026,9 +2713,9 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="7">
+        <v>6</v>
+      </c>
+      <c r="B20" s="11">
         <v>80.066999999999993</v>
       </c>
       <c r="C20" s="7">
@@ -2052,116 +2739,232 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="B21" s="20">
+        <v>79.466999999999999</v>
+      </c>
+      <c r="C21" s="7">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="D21" s="7">
+        <v>80</v>
+      </c>
+      <c r="E21" s="7">
+        <v>78.733000000000004</v>
+      </c>
+      <c r="F21" s="7">
+        <v>79.2</v>
+      </c>
+      <c r="G21" s="7">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="H21" s="7">
+        <v>80</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="B22" s="20">
+        <v>78.867000000000004</v>
+      </c>
+      <c r="C22" s="7">
+        <v>78.867000000000004</v>
+      </c>
+      <c r="D22" s="11">
+        <v>80.132999999999996</v>
+      </c>
+      <c r="E22" s="7">
+        <v>79.266999999999996</v>
+      </c>
+      <c r="F22" s="7">
+        <v>78.466999999999999</v>
+      </c>
+      <c r="G22" s="7">
+        <v>78.466999999999999</v>
+      </c>
+      <c r="H22" s="7">
+        <v>79.27</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="20">
+        <v>78.667000000000002</v>
+      </c>
+      <c r="C23" s="7">
+        <v>79.066999999999993</v>
+      </c>
+      <c r="D23" s="7">
+        <v>79.332999999999998</v>
+      </c>
+      <c r="E23" s="11">
+        <v>80.2</v>
+      </c>
+      <c r="F23" s="7">
+        <v>78.266999999999996</v>
+      </c>
+      <c r="G23" s="7">
+        <v>79.533000000000001</v>
+      </c>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="7">
-        <v>88</v>
-      </c>
-      <c r="C24" s="7">
-        <v>88.266999999999996</v>
-      </c>
-      <c r="D24" s="7">
-        <v>87.867000000000004</v>
-      </c>
-      <c r="E24" s="7">
-        <v>88.8</v>
-      </c>
-      <c r="F24" s="7">
-        <v>87.867000000000004</v>
-      </c>
-      <c r="G24" s="7">
-        <v>87.867000000000004</v>
-      </c>
-      <c r="H24" s="7">
-        <v>87.6</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="7">
-        <v>88</v>
-      </c>
-      <c r="C25" s="7">
-        <v>88.667000000000002</v>
-      </c>
-      <c r="D25" s="7">
-        <v>87.332999999999998</v>
-      </c>
-      <c r="E25" s="7">
-        <v>88.266999999999996</v>
-      </c>
-      <c r="F25" s="7">
-        <v>87.867000000000004</v>
-      </c>
-      <c r="G25" s="7">
-        <v>87.2</v>
-      </c>
-      <c r="H25" s="7">
-        <v>88.8</v>
-      </c>
+      <c r="A25" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="B26" s="20">
+        <v>88</v>
+      </c>
+      <c r="C26" s="7">
+        <v>88.266999999999996</v>
+      </c>
+      <c r="D26" s="7">
+        <v>87.867000000000004</v>
+      </c>
+      <c r="E26" s="7">
+        <v>88.8</v>
+      </c>
+      <c r="F26" s="7">
+        <v>87.867000000000004</v>
+      </c>
+      <c r="G26" s="7">
+        <v>87.867000000000004</v>
+      </c>
+      <c r="H26" s="7">
+        <v>87.6</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="B27" s="20">
+        <v>88</v>
+      </c>
+      <c r="C27" s="7">
+        <v>88.667000000000002</v>
+      </c>
+      <c r="D27" s="7">
+        <v>87.332999999999998</v>
+      </c>
+      <c r="E27" s="7">
+        <v>88.266999999999996</v>
+      </c>
+      <c r="F27" s="7">
+        <v>87.867000000000004</v>
+      </c>
+      <c r="G27" s="7">
+        <v>87.2</v>
+      </c>
+      <c r="H27" s="7">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="20">
+        <v>88.933000000000007</v>
+      </c>
+      <c r="C28" s="7">
+        <v>88.4</v>
+      </c>
+      <c r="D28" s="11">
+        <v>89.332999999999998</v>
+      </c>
+      <c r="E28" s="7">
+        <v>88.8</v>
+      </c>
+      <c r="F28" s="7">
+        <v>89.2</v>
+      </c>
+      <c r="G28" s="7">
+        <v>88.266999999999996</v>
+      </c>
+      <c r="H28" s="7">
+        <v>88.533000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="20">
+        <v>88.533000000000001</v>
+      </c>
+      <c r="C29" s="7">
+        <v>88.533000000000001</v>
+      </c>
+      <c r="D29" s="7">
+        <v>88.132999999999996</v>
+      </c>
+      <c r="E29" s="7">
+        <v>88.8</v>
+      </c>
+      <c r="F29" s="7">
+        <v>88.667000000000002</v>
+      </c>
+      <c r="G29" s="7">
+        <v>86.8</v>
+      </c>
+      <c r="H29" s="11">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="20">
+        <v>88</v>
+      </c>
+      <c r="C30" s="7">
+        <v>87.332999999999998</v>
+      </c>
+      <c r="D30" s="11">
+        <v>89.2</v>
+      </c>
+      <c r="E30" s="7">
+        <v>88.8</v>
+      </c>
+      <c r="F30" s="7">
+        <v>88.533000000000001</v>
+      </c>
+      <c r="G30" s="7">
+        <v>88.266999999999996</v>
+      </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2174,15 +2977,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.140625" customWidth="1"/>
@@ -2191,141 +2994,160 @@
     <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="E1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="B4" s="7">
         <v>67.400000000000006</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="E4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="13">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="7">
         <v>64.066999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="7">
         <v>66.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="7">
         <v>65.8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="B11" s="7">
         <v>74.667000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="7">
         <v>69.466999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="7">
         <v>71.2</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="7">
         <v>71.733000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:6">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4"/>
+    <row r="16" spans="1:6">
+      <c r="A16" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="7">
+        <v>5</v>
+      </c>
+      <c r="B18" s="20">
         <v>70.066999999999993</v>
       </c>
       <c r="C18" s="7">
@@ -2337,7 +3159,7 @@
       <c r="E18" s="7">
         <v>70.132999999999996</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="11">
         <v>71.466999999999999</v>
       </c>
       <c r="G18" s="7">
@@ -2349,9 +3171,9 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="7">
+        <v>6</v>
+      </c>
+      <c r="B19" s="20">
         <v>70.066999999999993</v>
       </c>
       <c r="C19" s="7">
@@ -2375,116 +3197,232 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="B20" s="20">
+        <v>70.533000000000001</v>
+      </c>
+      <c r="C20" s="7">
+        <v>69.8</v>
+      </c>
+      <c r="D20" s="7">
+        <v>69.667000000000002</v>
+      </c>
+      <c r="E20" s="7">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="F20" s="7">
+        <v>70.332999999999998</v>
+      </c>
+      <c r="G20" s="7">
+        <v>70.667000000000002</v>
+      </c>
+      <c r="H20" s="7">
+        <v>69.066999999999993</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="B21" s="20">
+        <v>70.533000000000001</v>
+      </c>
+      <c r="C21" s="7">
+        <v>70.132999999999996</v>
+      </c>
+      <c r="D21" s="7">
+        <v>70.2</v>
+      </c>
+      <c r="E21" s="11">
+        <v>70.933000000000007</v>
+      </c>
+      <c r="F21" s="7">
+        <v>69.733000000000004</v>
+      </c>
+      <c r="G21" s="7">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="H21" s="7">
+        <v>69.47</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="A22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="20">
+        <v>70</v>
+      </c>
+      <c r="C22" s="7">
+        <v>70.132999999999996</v>
+      </c>
+      <c r="D22" s="7">
+        <v>69.466999999999999</v>
+      </c>
+      <c r="E22" s="11">
+        <v>70.733000000000004</v>
+      </c>
+      <c r="F22" s="7">
+        <v>70</v>
+      </c>
+      <c r="G22" s="7">
+        <v>69.933000000000007</v>
+      </c>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="7">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="C23" s="7">
-        <v>78.933000000000007</v>
-      </c>
-      <c r="D23" s="7">
-        <v>77.332999999999998</v>
-      </c>
-      <c r="E23" s="7">
-        <v>76.266999999999996</v>
-      </c>
-      <c r="F23" s="7">
-        <v>76.8</v>
-      </c>
-      <c r="G23" s="7">
-        <v>78.132999999999996</v>
-      </c>
-      <c r="H23" s="7">
-        <v>78</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="7">
-        <v>76.667000000000002</v>
-      </c>
-      <c r="C24" s="7">
-        <v>78.667000000000002</v>
-      </c>
-      <c r="D24" s="7">
-        <v>78.667000000000002</v>
-      </c>
-      <c r="E24" s="7">
-        <v>75.733000000000004</v>
-      </c>
-      <c r="F24" s="7">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="G24" s="7">
-        <v>76.933000000000007</v>
-      </c>
-      <c r="H24" s="7">
-        <v>77.066999999999993</v>
-      </c>
+      <c r="A24" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="B25" s="20">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="C25" s="11">
+        <v>78.933000000000007</v>
+      </c>
+      <c r="D25" s="7">
+        <v>77.332999999999998</v>
+      </c>
+      <c r="E25" s="7">
+        <v>76.266999999999996</v>
+      </c>
+      <c r="F25" s="7">
+        <v>76.8</v>
+      </c>
+      <c r="G25" s="7">
+        <v>78.132999999999996</v>
+      </c>
+      <c r="H25" s="7">
+        <v>78</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="B26" s="20">
+        <v>76.667000000000002</v>
+      </c>
+      <c r="C26" s="7">
+        <v>78.667000000000002</v>
+      </c>
+      <c r="D26" s="11">
+        <v>78.667000000000002</v>
+      </c>
+      <c r="E26" s="7">
+        <v>75.733000000000004</v>
+      </c>
+      <c r="F26" s="7">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="G26" s="7">
+        <v>76.933000000000007</v>
+      </c>
+      <c r="H26" s="7">
+        <v>77.066999999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="20">
+        <v>77.466999999999999</v>
+      </c>
+      <c r="C27" s="7">
+        <v>77.2</v>
+      </c>
+      <c r="D27" s="7">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="E27" s="7">
+        <v>77.733000000000004</v>
+      </c>
+      <c r="F27" s="7">
+        <v>77.332999999999998</v>
+      </c>
+      <c r="G27" s="7">
+        <v>78.132999999999996</v>
+      </c>
+      <c r="H27" s="7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="20">
+        <v>76.933000000000007</v>
+      </c>
+      <c r="C28" s="7">
+        <v>77.332999999999998</v>
+      </c>
+      <c r="D28" s="7">
+        <v>78.533000000000001</v>
+      </c>
+      <c r="E28" s="7">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="F28" s="11">
+        <v>78.667000000000002</v>
+      </c>
+      <c r="G28" s="7">
+        <v>78.132999999999996</v>
+      </c>
+      <c r="H28" s="7">
+        <v>76.930000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="11">
+        <v>78.933000000000007</v>
+      </c>
+      <c r="C29" s="7">
+        <v>78.132999999999996</v>
+      </c>
+      <c r="D29" s="7">
+        <v>76.933000000000007</v>
+      </c>
+      <c r="E29" s="7">
+        <v>77.466999999999999</v>
+      </c>
+      <c r="F29" s="7">
+        <v>77.066999999999993</v>
+      </c>
+      <c r="G29" s="7">
+        <v>76.533000000000001</v>
+      </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2497,10 +3435,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2515,145 +3453,164 @@
     <col min="8" max="8" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="E1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13">
+        <v>78.334000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="B4" s="7">
         <v>69.266999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="E4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="13">
+        <v>88.665999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="7">
         <v>71.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="7">
         <v>67.466999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="7">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="B11" s="7">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="7">
         <v>75.466999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="7">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="7">
         <v>70.266999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="4"/>
+      <c r="A17" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="8"/>
+      <c r="A18" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="B18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="7">
+        <v>5</v>
+      </c>
+      <c r="B19" s="20">
         <v>68</v>
       </c>
       <c r="C19" s="7">
@@ -2677,18 +3634,18 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="7">
+        <v>6</v>
+      </c>
+      <c r="B20" s="20">
         <v>68.867000000000004</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="11">
         <v>69.667000000000002</v>
       </c>
       <c r="D20" s="7">
         <v>67.400000000000006</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="11">
         <v>69.8</v>
       </c>
       <c r="F20" s="7">
@@ -2703,116 +3660,232 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="B21" s="20">
+        <v>69.2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>69.2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="E21" s="7">
+        <v>68.332999999999998</v>
+      </c>
+      <c r="F21" s="7">
+        <v>68.733000000000004</v>
+      </c>
+      <c r="G21" s="7">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="H21" s="7">
+        <v>68.332999999999998</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="B22" s="20">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="C22" s="7">
+        <v>68.466999999999999</v>
+      </c>
+      <c r="D22" s="7">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="E22" s="7">
+        <v>68.867000000000004</v>
+      </c>
+      <c r="F22" s="11">
+        <v>69.667000000000002</v>
+      </c>
+      <c r="G22" s="7">
+        <v>68.266999999999996</v>
+      </c>
+      <c r="H22" s="7">
+        <v>68.73</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="20">
+        <v>68.733000000000004</v>
+      </c>
+      <c r="C23" s="7">
+        <v>68.332999999999998</v>
+      </c>
+      <c r="D23" s="7">
+        <v>68.733000000000004</v>
+      </c>
+      <c r="E23" s="7">
+        <v>69.066999999999993</v>
+      </c>
+      <c r="F23" s="7">
+        <v>68.533000000000001</v>
+      </c>
+      <c r="G23" s="11">
+        <v>69.933000000000007</v>
+      </c>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="7">
-        <v>75.733000000000004</v>
-      </c>
-      <c r="C24" s="7">
-        <v>74</v>
-      </c>
-      <c r="D24" s="7">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="E24" s="7">
-        <v>73.2</v>
-      </c>
-      <c r="F24" s="7">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="G24" s="7">
-        <v>74.266999999999996</v>
-      </c>
-      <c r="H24" s="7">
-        <v>74.667000000000002</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="7">
-        <v>72.667000000000002</v>
-      </c>
-      <c r="C25" s="7">
-        <v>75.733000000000004</v>
-      </c>
-      <c r="D25" s="7">
-        <v>73.332999999999998</v>
-      </c>
-      <c r="E25" s="7">
-        <v>76.132999999999996</v>
-      </c>
-      <c r="F25" s="7">
-        <v>74.132999999999996</v>
-      </c>
-      <c r="G25" s="7">
-        <v>73.066999999999993</v>
-      </c>
-      <c r="H25" s="7">
-        <v>74.533000000000001</v>
-      </c>
+      <c r="A25" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="B26" s="20">
+        <v>75.733000000000004</v>
+      </c>
+      <c r="C26" s="7">
+        <v>74</v>
+      </c>
+      <c r="D26" s="7">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="E26" s="7">
+        <v>73.2</v>
+      </c>
+      <c r="F26" s="11">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="G26" s="7">
+        <v>74.266999999999996</v>
+      </c>
+      <c r="H26" s="7">
+        <v>74.667000000000002</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="B27" s="20">
+        <v>72.667000000000002</v>
+      </c>
+      <c r="C27" s="7">
+        <v>75.733000000000004</v>
+      </c>
+      <c r="D27" s="7">
+        <v>73.332999999999998</v>
+      </c>
+      <c r="E27" s="7">
+        <v>76.132999999999996</v>
+      </c>
+      <c r="F27" s="7">
+        <v>74.132999999999996</v>
+      </c>
+      <c r="G27" s="7">
+        <v>73.066999999999993</v>
+      </c>
+      <c r="H27" s="7">
+        <v>74.533000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="20">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="C28" s="11">
+        <v>76.132999999999996</v>
+      </c>
+      <c r="D28" s="7">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="E28" s="7">
+        <v>75.332999999999998</v>
+      </c>
+      <c r="F28" s="7">
+        <v>73.332999999999998</v>
+      </c>
+      <c r="G28" s="7">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="H28" s="7">
+        <v>74.667000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="20">
+        <v>75.332999999999998</v>
+      </c>
+      <c r="C29" s="7">
+        <v>74.132999999999996</v>
+      </c>
+      <c r="D29" s="7">
+        <v>74.8</v>
+      </c>
+      <c r="E29" s="7">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="F29" s="7">
+        <v>75.733000000000004</v>
+      </c>
+      <c r="G29" s="7">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="H29" s="7">
+        <v>75.73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="20">
+        <v>75.066999999999993</v>
+      </c>
+      <c r="C30" s="11">
+        <v>76.266999999999996</v>
+      </c>
+      <c r="D30" s="7">
+        <v>75.733000000000004</v>
+      </c>
+      <c r="E30" s="7">
+        <v>73.733000000000004</v>
+      </c>
+      <c r="F30" s="7">
+        <v>75.466999999999999</v>
+      </c>
+      <c r="G30" s="7">
+        <v>75.733000000000004</v>
+      </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2825,10 +3898,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2842,141 +3915,160 @@
     <col min="8" max="8" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="E1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13">
+        <v>77.001999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="B4" s="7">
         <v>60.933</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="E4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="13">
+        <v>84.001999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="7">
         <v>62.067</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="7">
         <v>62.133000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="7">
         <v>60.6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="B11" s="7">
         <v>65.2</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="7">
         <v>66.667000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="7">
         <v>67.867000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="7">
         <v>68.667000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4"/>
+    <row r="16" spans="1:6">
+      <c r="A16" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="8"/>
+      <c r="A17" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="B17" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="F17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="B18" s="20">
         <v>71.733000000000004</v>
       </c>
       <c r="C18" s="7">
@@ -2994,24 +4086,24 @@
       <c r="G18" s="7">
         <v>71</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="11">
         <v>73.533000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="7">
+        <v>2</v>
+      </c>
+      <c r="B19" s="20">
         <v>71.533000000000001</v>
       </c>
       <c r="C19" s="7">
         <v>71.867000000000004</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="11">
         <v>73.2</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="11">
         <v>72.667000000000002</v>
       </c>
       <c r="F19" s="7">
@@ -3026,116 +4118,232 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="B20" s="20">
+        <v>72.066999999999993</v>
+      </c>
+      <c r="C20" s="7">
+        <v>72.266999999999996</v>
+      </c>
+      <c r="D20" s="7">
+        <v>71.667000000000002</v>
+      </c>
+      <c r="E20" s="7">
+        <v>73.2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>71.8</v>
+      </c>
+      <c r="G20" s="7">
+        <v>72.132999999999996</v>
+      </c>
+      <c r="H20" s="7">
+        <v>72</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="B21" s="20">
+        <v>71.933000000000007</v>
+      </c>
+      <c r="C21" s="7">
+        <v>71.733000000000004</v>
+      </c>
+      <c r="D21" s="7">
+        <v>71.733000000000004</v>
+      </c>
+      <c r="E21" s="7">
+        <v>71.066999999999993</v>
+      </c>
+      <c r="F21" s="7">
+        <v>71.533000000000001</v>
+      </c>
+      <c r="G21" s="7">
+        <v>71.466999999999999</v>
+      </c>
+      <c r="H21" s="7">
+        <v>70.930000000000007</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="A22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="20">
+        <v>72.266999999999996</v>
+      </c>
+      <c r="C22" s="11">
+        <v>72.667000000000002</v>
+      </c>
+      <c r="D22" s="7">
+        <v>70.933000000000007</v>
+      </c>
+      <c r="E22" s="11">
+        <v>72.667000000000002</v>
+      </c>
+      <c r="F22" s="7">
+        <v>71.266999999999996</v>
+      </c>
+      <c r="G22" s="7">
+        <v>71.132999999999996</v>
+      </c>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="7">
-        <v>78.132999999999996</v>
-      </c>
-      <c r="C23" s="7">
-        <v>81.2</v>
-      </c>
-      <c r="D23" s="7">
-        <v>80.533000000000001</v>
-      </c>
-      <c r="E23" s="7">
-        <v>81.466999999999999</v>
-      </c>
-      <c r="F23" s="7">
-        <v>79.332999999999998</v>
-      </c>
-      <c r="G23" s="7">
-        <v>79.466999999999999</v>
-      </c>
-      <c r="H23" s="7">
-        <v>81.066999999999993</v>
-      </c>
+      <c r="A23" s="8"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="7">
-        <v>80.266999999999996</v>
-      </c>
-      <c r="C24" s="7">
-        <v>80.667000000000002</v>
-      </c>
-      <c r="D24" s="7">
-        <v>82.667000000000002</v>
-      </c>
-      <c r="E24" s="7">
-        <v>81.599999999999994</v>
-      </c>
-      <c r="F24" s="7">
-        <v>79.733000000000004</v>
-      </c>
-      <c r="G24" s="7">
-        <v>80.8</v>
-      </c>
-      <c r="H24" s="7">
-        <v>80.132999999999996</v>
-      </c>
+      <c r="A24" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="B25" s="20">
+        <v>78.132999999999996</v>
+      </c>
+      <c r="C25" s="7">
+        <v>81.2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>80.533000000000001</v>
+      </c>
+      <c r="E25" s="7">
+        <v>81.466999999999999</v>
+      </c>
+      <c r="F25" s="7">
+        <v>79.332999999999998</v>
+      </c>
+      <c r="G25" s="7">
+        <v>79.466999999999999</v>
+      </c>
+      <c r="H25" s="7">
+        <v>81.066999999999993</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="B26" s="20">
+        <v>80.266999999999996</v>
+      </c>
+      <c r="C26" s="7">
+        <v>80.667000000000002</v>
+      </c>
+      <c r="D26" s="11">
+        <v>82.667000000000002</v>
+      </c>
+      <c r="E26" s="7">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="F26" s="7">
+        <v>79.733000000000004</v>
+      </c>
+      <c r="G26" s="7">
+        <v>80.8</v>
+      </c>
+      <c r="H26" s="7">
+        <v>80.132999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="20">
+        <v>80.132999999999996</v>
+      </c>
+      <c r="C27" s="7">
+        <v>81.733000000000004</v>
+      </c>
+      <c r="D27" s="11">
+        <v>81.867000000000004</v>
+      </c>
+      <c r="E27" s="11">
+        <v>83.2</v>
+      </c>
+      <c r="F27" s="7">
+        <v>81.733000000000004</v>
+      </c>
+      <c r="G27" s="7">
+        <v>81.066999999999993</v>
+      </c>
+      <c r="H27" s="7">
+        <v>80.933000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="20">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="C28" s="7">
+        <v>80.667000000000002</v>
+      </c>
+      <c r="D28" s="11">
+        <v>81.867000000000004</v>
+      </c>
+      <c r="E28" s="7">
+        <v>81.2</v>
+      </c>
+      <c r="F28" s="7">
+        <v>80.533000000000001</v>
+      </c>
+      <c r="G28" s="7">
+        <v>79.066999999999993</v>
+      </c>
+      <c r="H28" s="7">
+        <v>79.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="20">
+        <v>81.066999999999993</v>
+      </c>
+      <c r="C29" s="7">
+        <v>81.466999999999999</v>
+      </c>
+      <c r="D29" s="7">
+        <v>79.2</v>
+      </c>
+      <c r="E29" s="7">
+        <v>80.933000000000007</v>
+      </c>
+      <c r="F29" s="7">
+        <v>81.066999999999993</v>
+      </c>
+      <c r="G29" s="7">
+        <v>80.533000000000001</v>
+      </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -3148,10 +4356,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3164,141 +4372,160 @@
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="E1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13">
+        <v>83.665999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="B4" s="7">
         <v>69.667000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="E4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="13">
+        <v>93.331999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="7">
         <v>67.733000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="7">
         <v>68.933000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="7">
         <v>66.933000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="B11" s="7">
         <v>78.933000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="7">
         <v>75.733000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="7">
         <v>76.933000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="7">
         <v>74.933000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4"/>
+    <row r="16" spans="1:6">
+      <c r="A16" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="8"/>
+      <c r="A17" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="B17" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="F17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="B18" s="20">
         <v>75.667000000000002</v>
       </c>
       <c r="C18" s="7">
@@ -3322,9 +4549,9 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="7">
+        <v>2</v>
+      </c>
+      <c r="B19" s="20">
         <v>76.8</v>
       </c>
       <c r="C19" s="7">
@@ -3348,116 +4575,232 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="B20" s="20">
+        <v>75.332999999999998</v>
+      </c>
+      <c r="C20" s="7">
+        <v>76.733000000000004</v>
+      </c>
+      <c r="D20" s="7">
+        <v>75.867000000000004</v>
+      </c>
+      <c r="E20" s="7">
+        <v>77</v>
+      </c>
+      <c r="F20" s="11">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="G20" s="11">
+        <v>77.533000000000001</v>
+      </c>
+      <c r="H20" s="7">
+        <v>75.466999999999999</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="B21" s="20">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="C21" s="7">
+        <v>75.867000000000004</v>
+      </c>
+      <c r="D21" s="7">
+        <v>74.8</v>
+      </c>
+      <c r="E21" s="11">
+        <v>77.466999999999999</v>
+      </c>
+      <c r="F21" s="7">
+        <v>76.466999999999999</v>
+      </c>
+      <c r="G21" s="7">
+        <v>75.2</v>
+      </c>
+      <c r="H21" s="7">
+        <v>76.73</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="A22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="20">
+        <v>76.533000000000001</v>
+      </c>
+      <c r="C22" s="7">
+        <v>75.533000000000001</v>
+      </c>
+      <c r="D22" s="7">
+        <v>75.667000000000002</v>
+      </c>
+      <c r="E22" s="7">
+        <v>76.132999999999996</v>
+      </c>
+      <c r="F22" s="7">
+        <v>75.733000000000004</v>
+      </c>
+      <c r="G22" s="7">
+        <v>75.2</v>
+      </c>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="7">
-        <v>83.733000000000004</v>
-      </c>
-      <c r="C23" s="7">
-        <v>83.867000000000004</v>
-      </c>
-      <c r="D23" s="7">
-        <v>85.466999999999999</v>
-      </c>
-      <c r="E23" s="7">
-        <v>83.2</v>
-      </c>
-      <c r="F23" s="7">
-        <v>83.733000000000004</v>
-      </c>
-      <c r="G23" s="7">
-        <v>82.933000000000007</v>
-      </c>
-      <c r="H23" s="7">
-        <v>82.933000000000007</v>
-      </c>
+      <c r="A23" s="8"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="7">
-        <v>84.933000000000007</v>
-      </c>
-      <c r="C24" s="7">
-        <v>83.6</v>
-      </c>
-      <c r="D24" s="7">
-        <v>83.2</v>
-      </c>
-      <c r="E24" s="7">
-        <v>83.066999999999993</v>
-      </c>
-      <c r="F24" s="7">
-        <v>84</v>
-      </c>
-      <c r="G24" s="7">
-        <v>84.8</v>
-      </c>
-      <c r="H24" s="7">
-        <v>84.667000000000002</v>
-      </c>
+      <c r="A24" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="B25" s="20">
+        <v>83.733000000000004</v>
+      </c>
+      <c r="C25" s="7">
+        <v>83.867000000000004</v>
+      </c>
+      <c r="D25" s="11">
+        <v>85.466999999999999</v>
+      </c>
+      <c r="E25" s="7">
+        <v>83.2</v>
+      </c>
+      <c r="F25" s="7">
+        <v>83.733000000000004</v>
+      </c>
+      <c r="G25" s="7">
+        <v>82.933000000000007</v>
+      </c>
+      <c r="H25" s="7">
+        <v>82.933000000000007</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="B26" s="20">
+        <v>84.933000000000007</v>
+      </c>
+      <c r="C26" s="7">
+        <v>83.6</v>
+      </c>
+      <c r="D26" s="7">
+        <v>83.2</v>
+      </c>
+      <c r="E26" s="7">
+        <v>83.066999999999993</v>
+      </c>
+      <c r="F26" s="7">
+        <v>84</v>
+      </c>
+      <c r="G26" s="7">
+        <v>84.8</v>
+      </c>
+      <c r="H26" s="7">
+        <v>84.667000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="20">
+        <v>83.6</v>
+      </c>
+      <c r="C27" s="7">
+        <v>84.266999999999996</v>
+      </c>
+      <c r="D27" s="7">
+        <v>84.4</v>
+      </c>
+      <c r="E27" s="7">
+        <v>84.8</v>
+      </c>
+      <c r="F27" s="7">
+        <v>84.533000000000001</v>
+      </c>
+      <c r="G27" s="11">
+        <v>86.132999999999996</v>
+      </c>
+      <c r="H27" s="7">
+        <v>83.066999999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="20">
+        <v>83.6</v>
+      </c>
+      <c r="C28" s="7">
+        <v>82.132999999999996</v>
+      </c>
+      <c r="D28" s="7">
+        <v>83.867000000000004</v>
+      </c>
+      <c r="E28" s="11">
+        <v>86.4</v>
+      </c>
+      <c r="F28" s="7">
+        <v>84</v>
+      </c>
+      <c r="G28" s="7">
+        <v>82.667000000000002</v>
+      </c>
+      <c r="H28" s="7">
+        <v>83.07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="20">
+        <v>83.867000000000004</v>
+      </c>
+      <c r="C29" s="7">
+        <v>81.332999999999998</v>
+      </c>
+      <c r="D29" s="7">
+        <v>81.867000000000004</v>
+      </c>
+      <c r="E29" s="7">
+        <v>84.933000000000007</v>
+      </c>
+      <c r="F29" s="7">
+        <v>84</v>
+      </c>
+      <c r="G29" s="7">
+        <v>82.132999999999996</v>
+      </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
